--- a/pred_ohlcv/54_21/2019-10-26 CON ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-26 CON ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>2394426.1911</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>2530337.1914</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>2530337.1914</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>2281935.4652</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>2281935.4652</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>2410608.5997</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>2176019.7104</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>2713245.7251</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>2713233.7251</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>2713233.7251</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>2713363.7251</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>2637913.560000001</v>
       </c>
       <c r="H13">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>2846129.991200001</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>2484579.755100001</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>2484579.755100001</v>
       </c>
       <c r="H16">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -886,7 +886,7 @@
         <v>2757749.562600001</v>
       </c>
       <c r="H19">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>2757749.562600001</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>2757749.562600001</v>
       </c>
       <c r="H21">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>2757749.562600001</v>
       </c>
       <c r="H22">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>2757749.562600001</v>
       </c>
       <c r="H23">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>2757749.562600001</v>
       </c>
       <c r="H24">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>2757749.562600001</v>
       </c>
       <c r="H25">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>2757749.562600001</v>
       </c>
       <c r="H26">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>2757749.562600001</v>
       </c>
       <c r="H27">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>2552488.821600001</v>
       </c>
       <c r="H28">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>2806203.653400001</v>
       </c>
       <c r="H29">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>2727661.1982</v>
       </c>
       <c r="H30">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>2859800.3169</v>
       </c>
       <c r="H31">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>2859800.3169</v>
       </c>
       <c r="H32">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>2859800.3169</v>
       </c>
       <c r="H33">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>2859800.3169</v>
       </c>
       <c r="H34">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>2859800.3169</v>
       </c>
       <c r="H35">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>2740142.3241</v>
       </c>
       <c r="H36">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>2892064.3144</v>
       </c>
       <c r="H37">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>2892064.3144</v>
       </c>
       <c r="H38">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>2892064.3144</v>
       </c>
       <c r="H39">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>2892051.3144</v>
       </c>
       <c r="H40">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>3055476.414900001</v>
       </c>
       <c r="H41">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>2787132.939100001</v>
       </c>
       <c r="H42">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>3019674.4526</v>
       </c>
       <c r="H43">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>3019674.4526</v>
       </c>
       <c r="H44">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>3019662.4526</v>
       </c>
       <c r="H45">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>3216187.9261</v>
       </c>
       <c r="H46">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>3069105.6787</v>
       </c>
       <c r="H47">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>3069105.6787</v>
       </c>
       <c r="H48">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>3069105.6787</v>
       </c>
       <c r="H49">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>3069105.6787</v>
       </c>
       <c r="H50">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>3069105.6787</v>
       </c>
       <c r="H51">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>2903793.745</v>
       </c>
       <c r="H52">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>4012009.5076</v>
       </c>
       <c r="H70">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>4012009.5076</v>
       </c>
       <c r="H71">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>4012009.5076</v>
       </c>
       <c r="H72">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>4012009.5076</v>
       </c>
       <c r="H73">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>4012009.5076</v>
       </c>
       <c r="H74">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>4012009.5076</v>
       </c>
       <c r="H75">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>4273949.963599999</v>
       </c>
       <c r="H76">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>4273949.963599999</v>
       </c>
       <c r="H77">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>4079533.646799999</v>
       </c>
       <c r="H78">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>4079521.646799999</v>
       </c>
       <c r="H79">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>4448186.1866</v>
       </c>
       <c r="H80">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>4448186.1866</v>
       </c>
       <c r="H81">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>4448186.1866</v>
       </c>
       <c r="H82">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>4448186.1866</v>
       </c>
       <c r="H83">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>4448186.1866</v>
       </c>
       <c r="H84">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>4448186.1866</v>
       </c>
       <c r="H85">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>4448186.1866</v>
       </c>
       <c r="H86">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>4448186.1866</v>
       </c>
       <c r="H87">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>4448186.1866</v>
       </c>
       <c r="H88">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>4448186.1866</v>
       </c>
       <c r="H89">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>4448186.1866</v>
       </c>
       <c r="H90">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>3904821.810099999</v>
       </c>
       <c r="H97">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>4008160.458199999</v>
       </c>
       <c r="H98">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>4008160.458199999</v>
       </c>
       <c r="H99">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>4008160.458199999</v>
       </c>
       <c r="H100">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>4008160.458199999</v>
       </c>
       <c r="H101">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>3917150.020499999</v>
       </c>
       <c r="H102">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>3997193.825999999</v>
       </c>
       <c r="H103">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>3997193.825999999</v>
       </c>
       <c r="H104">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>3997193.825999999</v>
       </c>
       <c r="H105">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>3858796.088999999</v>
       </c>
       <c r="H106">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>4254456.079099999</v>
       </c>
       <c r="H107">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>4254456.079099999</v>
       </c>
       <c r="H108">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>4254456.079099999</v>
       </c>
       <c r="H113">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>4254456.079099999</v>
       </c>
       <c r="H114">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>4254456.079099999</v>
       </c>
       <c r="H117">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>4254456.079099999</v>
       </c>
       <c r="H119">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>4254456.079099999</v>
       </c>
       <c r="H120">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>5773501.7108</v>
       </c>
       <c r="H145">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>7820743.381099999</v>
       </c>
       <c r="H190">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>7820743.381099999</v>
       </c>
       <c r="H191">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>7820743.381099999</v>
       </c>
       <c r="H192">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>7820743.381099999</v>
       </c>
       <c r="H193">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>7820743.381099999</v>
       </c>
       <c r="H194">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>7820743.381099999</v>
       </c>
       <c r="H195">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>7820743.381099999</v>
       </c>
       <c r="H196">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>7820743.381099999</v>
       </c>
       <c r="H197">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>8288685.844399999</v>
       </c>
       <c r="H229">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>8288685.844399999</v>
       </c>
       <c r="H231">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>8406995.454199998</v>
       </c>
       <c r="H241">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>8406995.454199998</v>
       </c>
       <c r="H242">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>8406995.454199998</v>
       </c>
       <c r="H243">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>8051152.758699997</v>
       </c>
       <c r="H245">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>8050866.097299998</v>
       </c>
       <c r="H247">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>8050866.097299998</v>
       </c>
       <c r="H248">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>8050866.097299998</v>
       </c>
       <c r="H249">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>8050866.097299998</v>
       </c>
       <c r="H250">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>8455768.216899998</v>
       </c>
       <c r="H251">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>8657434.416699998</v>
       </c>
       <c r="H253">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>10025809.8562</v>
       </c>
       <c r="H292">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>10025809.8562</v>
       </c>
       <c r="H293">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8036,7 +8036,7 @@
         <v>10224240.2911</v>
       </c>
       <c r="H294">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>10224240.2911</v>
       </c>
       <c r="H295">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>10407797.2389</v>
       </c>
       <c r="H296">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>10447256.962</v>
       </c>
       <c r="H297">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>10752384.6585</v>
       </c>
       <c r="H298">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>10752384.6585</v>
       </c>
       <c r="H299">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>10752384.6585</v>
       </c>
       <c r="H300">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>10752384.6585</v>
       </c>
       <c r="H301">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>10752384.6585</v>
       </c>
       <c r="H302">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>10752384.6585</v>
       </c>
       <c r="H303">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>10752384.6585</v>
       </c>
       <c r="H304">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>10752384.6585</v>
       </c>
       <c r="H305">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>10752384.6585</v>
       </c>
       <c r="H306">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>10752384.6585</v>
       </c>
       <c r="H307">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>10752384.6585</v>
       </c>
       <c r="H308">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8426,7 +8426,7 @@
         <v>10752384.6585</v>
       </c>
       <c r="H309">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -8452,7 +8452,7 @@
         <v>10752384.6585</v>
       </c>
       <c r="H310">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -12820,7 +12820,7 @@
         <v>10791640.99759999</v>
       </c>
       <c r="H478">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="479" spans="1:8">
@@ -12846,7 +12846,7 @@
         <v>10791640.99759999</v>
       </c>
       <c r="H479">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="480" spans="1:8">
@@ -12872,7 +12872,7 @@
         <v>10791650.99759999</v>
       </c>
       <c r="H480">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="481" spans="1:8">
@@ -12898,7 +12898,7 @@
         <v>10791650.99759999</v>
       </c>
       <c r="H481">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="482" spans="1:8">
@@ -12924,7 +12924,7 @@
         <v>10791650.99759999</v>
       </c>
       <c r="H482">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="483" spans="1:8">
@@ -12950,7 +12950,7 @@
         <v>10791650.99759999</v>
       </c>
       <c r="H483">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="484" spans="1:8">
@@ -12976,7 +12976,7 @@
         <v>10586884.5367</v>
       </c>
       <c r="H484">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="485" spans="1:8">
@@ -13002,7 +13002,7 @@
         <v>10586884.5367</v>
       </c>
       <c r="H485">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="486" spans="1:8">
@@ -13028,7 +13028,7 @@
         <v>10586884.5367</v>
       </c>
       <c r="H486">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="487" spans="1:8">
@@ -13054,7 +13054,7 @@
         <v>10586884.5367</v>
       </c>
       <c r="H487">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="488" spans="1:8">
@@ -13080,7 +13080,7 @@
         <v>10586884.5367</v>
       </c>
       <c r="H488">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="489" spans="1:8">
@@ -13106,7 +13106,7 @@
         <v>10586884.5367</v>
       </c>
       <c r="H489">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="490" spans="1:8">
@@ -13132,7 +13132,7 @@
         <v>10586884.5367</v>
       </c>
       <c r="H490">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="491" spans="1:8">
@@ -13158,7 +13158,7 @@
         <v>10586884.5367</v>
       </c>
       <c r="H491">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="492" spans="1:8">
@@ -13262,7 +13262,7 @@
         <v>10225719.18609999</v>
       </c>
       <c r="H495">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="496" spans="1:8">
@@ -13314,7 +13314,7 @@
         <v>9459592.115499996</v>
       </c>
       <c r="H497">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="498" spans="1:8">
@@ -13340,7 +13340,7 @@
         <v>9539544.666799996</v>
       </c>
       <c r="H498">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="499" spans="1:8">
@@ -13366,7 +13366,7 @@
         <v>9539544.666799996</v>
       </c>
       <c r="H499">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="500" spans="1:8">
@@ -13392,7 +13392,7 @@
         <v>9539544.666799996</v>
       </c>
       <c r="H500">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="501" spans="1:8">
@@ -13418,7 +13418,7 @@
         <v>9555556.740699995</v>
       </c>
       <c r="H501">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="502" spans="1:8">
@@ -13444,7 +13444,7 @@
         <v>9555556.740699995</v>
       </c>
       <c r="H502">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="503" spans="1:8">
@@ -13470,7 +13470,7 @@
         <v>9555556.740699995</v>
       </c>
       <c r="H503">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="504" spans="1:8">
@@ -13496,7 +13496,7 @@
         <v>9514311.440499995</v>
       </c>
       <c r="H504">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="505" spans="1:8">
@@ -13522,7 +13522,7 @@
         <v>9473035.349599995</v>
       </c>
       <c r="H505">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="506" spans="1:8">
@@ -13548,7 +13548,7 @@
         <v>9446832.623999994</v>
       </c>
       <c r="H506">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="507" spans="1:8">
@@ -13574,7 +13574,7 @@
         <v>9446832.623999994</v>
       </c>
       <c r="H507">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="508" spans="1:8">
@@ -13600,7 +13600,7 @@
         <v>9811478.063599994</v>
       </c>
       <c r="H508">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="509" spans="1:8">
@@ -13626,7 +13626,7 @@
         <v>9811478.063599994</v>
       </c>
       <c r="H509">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="510" spans="1:8">
@@ -13652,7 +13652,7 @@
         <v>9904928.313499995</v>
       </c>
       <c r="H510">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="511" spans="1:8">
@@ -13678,7 +13678,7 @@
         <v>9710946.167799994</v>
       </c>
       <c r="H511">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="512" spans="1:8">
@@ -13704,7 +13704,7 @@
         <v>9267505.068399994</v>
       </c>
       <c r="H512">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="513" spans="1:8">
@@ -13808,7 +13808,7 @@
         <v>9312111.627299994</v>
       </c>
       <c r="H516">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="517" spans="1:8">
@@ -14926,7 +14926,7 @@
         <v>10147543.65359999</v>
       </c>
       <c r="H559">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="560" spans="1:8">
@@ -14952,7 +14952,7 @@
         <v>10236817.87639999</v>
       </c>
       <c r="H560">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="561" spans="1:8">
@@ -14978,7 +14978,7 @@
         <v>10236817.87639999</v>
       </c>
       <c r="H561">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="562" spans="1:8">
@@ -15004,7 +15004,7 @@
         <v>10442326.47519999</v>
       </c>
       <c r="H562">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="563" spans="1:8">
@@ -15030,7 +15030,7 @@
         <v>10442326.47519999</v>
       </c>
       <c r="H563">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="564" spans="1:8">
@@ -15056,7 +15056,7 @@
         <v>10442326.47519999</v>
       </c>
       <c r="H564">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="565" spans="1:8">
@@ -15082,7 +15082,7 @@
         <v>10258470.92939999</v>
       </c>
       <c r="H565">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="566" spans="1:8">
@@ -15108,7 +15108,7 @@
         <v>10258470.92939999</v>
       </c>
       <c r="H566">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="567" spans="1:8">
@@ -15134,7 +15134,7 @@
         <v>10258470.92939999</v>
       </c>
       <c r="H567">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="568" spans="1:8">
@@ -15160,7 +15160,7 @@
         <v>9832567.182099992</v>
       </c>
       <c r="H568">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="569" spans="1:8">
@@ -15186,7 +15186,7 @@
         <v>9832567.182099992</v>
       </c>
       <c r="H569">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="570" spans="1:8">
@@ -15264,7 +15264,7 @@
         <v>10123871.30999999</v>
       </c>
       <c r="H572">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="573" spans="1:8">
@@ -15290,7 +15290,7 @@
         <v>10123871.30999999</v>
       </c>
       <c r="H573">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="574" spans="1:8">
@@ -15316,7 +15316,7 @@
         <v>9910134.767099991</v>
       </c>
       <c r="H574">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="575" spans="1:8">
@@ -15576,7 +15576,7 @@
         <v>10463860.53099999</v>
       </c>
       <c r="H584">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="585" spans="1:8">
@@ -15602,7 +15602,7 @@
         <v>10463860.53099999</v>
       </c>
       <c r="H585">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="586" spans="1:8">
@@ -15628,7 +15628,7 @@
         <v>10640318.89229999</v>
       </c>
       <c r="H586">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="587" spans="1:8">
@@ -15654,7 +15654,7 @@
         <v>10640318.89229999</v>
       </c>
       <c r="H587">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="588" spans="1:8">
@@ -15680,7 +15680,7 @@
         <v>10640318.89229999</v>
       </c>
       <c r="H588">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="589" spans="1:8">
@@ -15706,7 +15706,7 @@
         <v>10754193.33529999</v>
       </c>
       <c r="H589">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="590" spans="1:8">
@@ -15732,7 +15732,7 @@
         <v>10435608.71999999</v>
       </c>
       <c r="H590">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="591" spans="1:8">
@@ -15758,7 +15758,7 @@
         <v>10455859.01809999</v>
       </c>
       <c r="H591">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="592" spans="1:8">
@@ -15784,7 +15784,7 @@
         <v>10455859.01809999</v>
       </c>
       <c r="H592">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="593" spans="1:8">
@@ -15810,7 +15810,7 @@
         <v>10455859.01809999</v>
       </c>
       <c r="H593">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="594" spans="1:8">
@@ -16668,7 +16668,7 @@
         <v>12372083.53052256</v>
       </c>
       <c r="H626">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="627" spans="1:8">
@@ -16694,7 +16694,7 @@
         <v>12372083.53052256</v>
       </c>
       <c r="H627">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="628" spans="1:8">
@@ -16746,7 +16746,7 @@
         <v>12150200.15382256</v>
       </c>
       <c r="H629">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="630" spans="1:8">
@@ -16798,7 +16798,7 @@
         <v>12350707.43362256</v>
       </c>
       <c r="H631">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="632" spans="1:8">
@@ -16824,7 +16824,7 @@
         <v>12350707.43362256</v>
       </c>
       <c r="H632">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="633" spans="1:8">
@@ -16850,7 +16850,7 @@
         <v>12204662.38182256</v>
       </c>
       <c r="H633">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="634" spans="1:8">
@@ -18046,7 +18046,7 @@
         <v>15707607.67682256</v>
       </c>
       <c r="H679">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="680" spans="1:8">
@@ -20152,7 +20152,7 @@
         <v>16069227.12962256</v>
       </c>
       <c r="H760">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="761" spans="1:8">
@@ -20178,7 +20178,7 @@
         <v>16069227.12962256</v>
       </c>
       <c r="H761">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="762" spans="1:8">
@@ -20204,7 +20204,7 @@
         <v>16069227.12962256</v>
       </c>
       <c r="H762">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="763" spans="1:8">
@@ -22128,7 +22128,7 @@
         <v>18700426.28872256</v>
       </c>
       <c r="H836">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="837" spans="1:8">
@@ -22154,7 +22154,7 @@
         <v>18784052.33682256</v>
       </c>
       <c r="H837">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="838" spans="1:8">
@@ -22180,7 +22180,7 @@
         <v>18784052.33682256</v>
       </c>
       <c r="H838">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="839" spans="1:8">
@@ -22206,7 +22206,7 @@
         <v>17904437.624249</v>
       </c>
       <c r="H839">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="840" spans="1:8">
@@ -22908,7 +22908,7 @@
         <v>19681294.17477544</v>
       </c>
       <c r="H866">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="867" spans="1:8">
@@ -23558,7 +23558,7 @@
         <v>21472923.79445288</v>
       </c>
       <c r="H891">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="892" spans="1:8">
@@ -23584,7 +23584,7 @@
         <v>21472923.79445288</v>
       </c>
       <c r="H892">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="893" spans="1:8">
@@ -23610,7 +23610,7 @@
         <v>21472923.79445288</v>
       </c>
       <c r="H893">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="894" spans="1:8">
@@ -23636,7 +23636,7 @@
         <v>21472923.79445288</v>
       </c>
       <c r="H894">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="895" spans="1:8">
@@ -23662,7 +23662,7 @@
         <v>21220915.59565287</v>
       </c>
       <c r="H895">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="896" spans="1:8">
@@ -23688,7 +23688,7 @@
         <v>21220915.59565287</v>
       </c>
       <c r="H896">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="897" spans="1:8">
@@ -23714,7 +23714,7 @@
         <v>21220915.59565287</v>
       </c>
       <c r="H897">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="898" spans="1:8">
@@ -23740,7 +23740,7 @@
         <v>21220915.59565287</v>
       </c>
       <c r="H898">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="899" spans="1:8">
@@ -23766,7 +23766,7 @@
         <v>21040353.12555287</v>
       </c>
       <c r="H899">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="900" spans="1:8">
@@ -23792,7 +23792,7 @@
         <v>21040353.12555287</v>
       </c>
       <c r="H900">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="901" spans="1:8">
@@ -23818,7 +23818,7 @@
         <v>21040353.12555287</v>
       </c>
       <c r="H901">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="902" spans="1:8">
@@ -23844,7 +23844,7 @@
         <v>20846770.56785287</v>
       </c>
       <c r="H902">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="903" spans="1:8">
@@ -23870,7 +23870,7 @@
         <v>21057510.34045287</v>
       </c>
       <c r="H903">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="904" spans="1:8">
@@ -23896,7 +23896,7 @@
         <v>21057510.34045287</v>
       </c>
       <c r="H904">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="905" spans="1:8">
@@ -23922,7 +23922,7 @@
         <v>21057510.34045287</v>
       </c>
       <c r="H905">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="906" spans="1:8">
@@ -23948,7 +23948,7 @@
         <v>21057510.34045287</v>
       </c>
       <c r="H906">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="907" spans="1:8">
@@ -23974,7 +23974,7 @@
         <v>21057510.34045287</v>
       </c>
       <c r="H907">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="908" spans="1:8">
@@ -24000,7 +24000,7 @@
         <v>20844113.11495287</v>
       </c>
       <c r="H908">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="909" spans="1:8">
@@ -24026,7 +24026,7 @@
         <v>20844113.11495287</v>
       </c>
       <c r="H909">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="910" spans="1:8">
@@ -24052,7 +24052,7 @@
         <v>20842218.18405287</v>
       </c>
       <c r="H910">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="911" spans="1:8">
@@ -24078,7 +24078,7 @@
         <v>20842218.18405287</v>
       </c>
       <c r="H911">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="912" spans="1:8">
@@ -24104,7 +24104,7 @@
         <v>20842218.18405287</v>
       </c>
       <c r="H912">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="913" spans="1:8">
@@ -24130,7 +24130,7 @@
         <v>20842218.18405287</v>
       </c>
       <c r="H913">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="914" spans="1:8">
@@ -24156,7 +24156,7 @@
         <v>20655139.49475287</v>
       </c>
       <c r="H914">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="915" spans="1:8">
@@ -24182,7 +24182,7 @@
         <v>20655139.49475287</v>
       </c>
       <c r="H915">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="916" spans="1:8">
@@ -24208,7 +24208,7 @@
         <v>20655139.49475287</v>
       </c>
       <c r="H916">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="917" spans="1:8">
@@ -24234,7 +24234,7 @@
         <v>20655139.49475287</v>
       </c>
       <c r="H917">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="918" spans="1:8">
@@ -24260,7 +24260,7 @@
         <v>20655139.49475287</v>
       </c>
       <c r="H918">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="919" spans="1:8">
@@ -24286,7 +24286,7 @@
         <v>20655139.49475287</v>
       </c>
       <c r="H919">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="920" spans="1:8">
@@ -24312,7 +24312,7 @@
         <v>20655139.49475287</v>
       </c>
       <c r="H920">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="921" spans="1:8">
@@ -24338,7 +24338,7 @@
         <v>20655139.49475287</v>
       </c>
       <c r="H921">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="922" spans="1:8">
@@ -24364,7 +24364,7 @@
         <v>20655139.49475287</v>
       </c>
       <c r="H922">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="923" spans="1:8">
@@ -24390,7 +24390,7 @@
         <v>20655139.49475287</v>
       </c>
       <c r="H923">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="924" spans="1:8">
@@ -24416,7 +24416,7 @@
         <v>20336311.42915287</v>
       </c>
       <c r="H924">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="925" spans="1:8">
@@ -24442,7 +24442,7 @@
         <v>20336311.42915287</v>
       </c>
       <c r="H925">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="926" spans="1:8">
@@ -24468,7 +24468,7 @@
         <v>20336311.42915287</v>
       </c>
       <c r="H926">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="927" spans="1:8">
@@ -24494,7 +24494,7 @@
         <v>20336311.42915287</v>
       </c>
       <c r="H927">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="928" spans="1:8">
@@ -24520,7 +24520,7 @@
         <v>20336311.42915287</v>
       </c>
       <c r="H928">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="929" spans="1:8">
@@ -24546,7 +24546,7 @@
         <v>20336311.42915287</v>
       </c>
       <c r="H929">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="930" spans="1:8">
@@ -24572,7 +24572,7 @@
         <v>20336311.42915287</v>
       </c>
       <c r="H930">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="931" spans="1:8">
@@ -24598,7 +24598,7 @@
         <v>20336311.42915287</v>
       </c>
       <c r="H931">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="932" spans="1:8">
@@ -24624,7 +24624,7 @@
         <v>20336311.42915287</v>
       </c>
       <c r="H932">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="933" spans="1:8">
@@ -24650,7 +24650,7 @@
         <v>20336311.42915287</v>
       </c>
       <c r="H933">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="934" spans="1:8">
@@ -24676,7 +24676,7 @@
         <v>20336311.42915287</v>
       </c>
       <c r="H934">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="935" spans="1:8">

--- a/pred_ohlcv/54_21/2019-10-26 CON ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-26 CON ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>2394426.1911</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>2530337.1914</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>2530337.1914</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>2281935.4652</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>2281935.4652</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>2410608.5997</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>2176019.7104</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>2713245.7251</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>2713233.7251</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>2713233.7251</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>2713363.7251</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>2637913.560000001</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>2846129.991200001</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>2484579.755100001</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -912,7 +912,7 @@
         <v>2757749.562600001</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>2757749.562600001</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>2757749.562600001</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>2757749.562600001</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>2757749.562600001</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>2757749.562600001</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>2757749.562600001</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>2757749.562600001</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>2552488.821600001</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>2806203.653400001</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>2727661.1982</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>2859800.3169</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>2859800.3169</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>2859800.3169</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>2859800.3169</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>2859800.3169</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>2740142.3241</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>2892064.3144</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>2892064.3144</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>2892064.3144</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>2892051.3144</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>3055476.414900001</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>2787132.939100001</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>3019674.4526</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>3019674.4526</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>3019662.4526</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>3216187.9261</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>3069105.6787</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>3069105.6787</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>3069105.6787</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>3069105.6787</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>3069105.6787</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>2903793.745</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>4012009.5076</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>4012009.5076</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>4012009.5076</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>4012009.5076</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>4012009.5076</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>4012009.5076</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>4273949.963599999</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>4079533.646799999</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>4079521.646799999</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>4448186.1866</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>4448186.1866</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>4448186.1866</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>4448186.1866</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>4448186.1866</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>4448186.1866</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>4448186.1866</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>4448186.1866</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>4448186.1866</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>4448186.1866</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>4191420.3317</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>4008160.458199999</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>3997193.825999999</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>4254456.079099999</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>4254456.079099999</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>7820743.381099999</v>
       </c>
       <c r="H190">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>7820743.381099999</v>
       </c>
       <c r="H191">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>7820743.381099999</v>
       </c>
       <c r="H192">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>7820743.381099999</v>
       </c>
       <c r="H193">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>7820743.381099999</v>
       </c>
       <c r="H194">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>7820743.381099999</v>
       </c>
       <c r="H195">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>7820743.381099999</v>
       </c>
       <c r="H196">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>7820743.381099999</v>
       </c>
       <c r="H197">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>10025809.8562</v>
       </c>
       <c r="H292">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>10025809.8562</v>
       </c>
       <c r="H293">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8036,7 +8036,7 @@
         <v>10224240.2911</v>
       </c>
       <c r="H294">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>10224240.2911</v>
       </c>
       <c r="H295">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>10407797.2389</v>
       </c>
       <c r="H296">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>10447256.962</v>
       </c>
       <c r="H297">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>10752384.6585</v>
       </c>
       <c r="H298">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>10752384.6585</v>
       </c>
       <c r="H299">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>10752384.6585</v>
       </c>
       <c r="H300">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>10752384.6585</v>
       </c>
       <c r="H301">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>10752384.6585</v>
       </c>
       <c r="H302">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>10752384.6585</v>
       </c>
       <c r="H303">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>10752384.6585</v>
       </c>
       <c r="H304">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>10752384.6585</v>
       </c>
       <c r="H305">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>10752384.6585</v>
       </c>
       <c r="H306">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>10752384.6585</v>
       </c>
       <c r="H307">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>10752384.6585</v>
       </c>
       <c r="H308">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8478,7 +8478,7 @@
         <v>10752384.6585</v>
       </c>
       <c r="H311">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -8582,7 +8582,7 @@
         <v>10752384.6585</v>
       </c>
       <c r="H315">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -8608,7 +8608,7 @@
         <v>10752384.6585</v>
       </c>
       <c r="H316">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -8634,7 +8634,7 @@
         <v>10752384.6585</v>
       </c>
       <c r="H317">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -8660,7 +8660,7 @@
         <v>10752384.6585</v>
       </c>
       <c r="H318">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -8686,7 +8686,7 @@
         <v>10811883.2483</v>
       </c>
       <c r="H319">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -8712,7 +8712,7 @@
         <v>10811883.2483</v>
       </c>
       <c r="H320">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -8738,7 +8738,7 @@
         <v>10811883.2483</v>
       </c>
       <c r="H321">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -8764,7 +8764,7 @@
         <v>10811883.2483</v>
       </c>
       <c r="H322">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -8790,7 +8790,7 @@
         <v>10811883.2483</v>
       </c>
       <c r="H323">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -8816,7 +8816,7 @@
         <v>10811883.2483</v>
       </c>
       <c r="H324">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -8842,7 +8842,7 @@
         <v>10811883.2483</v>
       </c>
       <c r="H325">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -8868,7 +8868,7 @@
         <v>10811883.2483</v>
       </c>
       <c r="H326">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -8894,7 +8894,7 @@
         <v>10811883.2483</v>
       </c>
       <c r="H327">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -8920,7 +8920,7 @@
         <v>10811883.2483</v>
       </c>
       <c r="H328">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -8946,7 +8946,7 @@
         <v>10811883.2483</v>
       </c>
       <c r="H329">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -8972,7 +8972,7 @@
         <v>10811883.2483</v>
       </c>
       <c r="H330">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -8998,7 +8998,7 @@
         <v>10811883.2483</v>
       </c>
       <c r="H331">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -9024,7 +9024,7 @@
         <v>10811883.2483</v>
       </c>
       <c r="H332">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -9050,7 +9050,7 @@
         <v>10811883.2483</v>
       </c>
       <c r="H333">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -9076,7 +9076,7 @@
         <v>10811883.2483</v>
       </c>
       <c r="H334">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -9102,7 +9102,7 @@
         <v>10811883.2483</v>
       </c>
       <c r="H335">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -9128,7 +9128,7 @@
         <v>10811883.2483</v>
       </c>
       <c r="H336">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -9154,7 +9154,7 @@
         <v>10811883.2483</v>
       </c>
       <c r="H337">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -9180,7 +9180,7 @@
         <v>10811883.2483</v>
       </c>
       <c r="H338">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -9206,7 +9206,7 @@
         <v>10811883.2483</v>
       </c>
       <c r="H339">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -9232,7 +9232,7 @@
         <v>10811883.2483</v>
       </c>
       <c r="H340">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -9258,7 +9258,7 @@
         <v>10811883.2483</v>
       </c>
       <c r="H341">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -9440,7 +9440,7 @@
         <v>10811883.2483</v>
       </c>
       <c r="H348">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -9492,7 +9492,7 @@
         <v>10811883.2483</v>
       </c>
       <c r="H350">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -12820,7 +12820,7 @@
         <v>10791640.99759999</v>
       </c>
       <c r="H478">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="479" spans="1:8">
@@ -12846,7 +12846,7 @@
         <v>10791640.99759999</v>
       </c>
       <c r="H479">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="480" spans="1:8">
@@ -12872,7 +12872,7 @@
         <v>10791650.99759999</v>
       </c>
       <c r="H480">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="481" spans="1:8">
@@ -12898,7 +12898,7 @@
         <v>10791650.99759999</v>
       </c>
       <c r="H481">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="482" spans="1:8">
@@ -12924,7 +12924,7 @@
         <v>10791650.99759999</v>
       </c>
       <c r="H482">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="483" spans="1:8">
@@ -12950,7 +12950,7 @@
         <v>10791650.99759999</v>
       </c>
       <c r="H483">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="484" spans="1:8">
@@ -12976,7 +12976,7 @@
         <v>10586884.5367</v>
       </c>
       <c r="H484">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="485" spans="1:8">
@@ -13002,7 +13002,7 @@
         <v>10586884.5367</v>
       </c>
       <c r="H485">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="486" spans="1:8">
@@ -13028,7 +13028,7 @@
         <v>10586884.5367</v>
       </c>
       <c r="H486">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="487" spans="1:8">
@@ -13054,7 +13054,7 @@
         <v>10586884.5367</v>
       </c>
       <c r="H487">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="488" spans="1:8">
@@ -13080,7 +13080,7 @@
         <v>10586884.5367</v>
       </c>
       <c r="H488">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="489" spans="1:8">
@@ -13106,7 +13106,7 @@
         <v>10586884.5367</v>
       </c>
       <c r="H489">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="490" spans="1:8">
@@ -13132,7 +13132,7 @@
         <v>10586884.5367</v>
       </c>
       <c r="H490">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="491" spans="1:8">
@@ -13158,7 +13158,7 @@
         <v>10586884.5367</v>
       </c>
       <c r="H491">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="492" spans="1:8">
@@ -13262,7 +13262,7 @@
         <v>10225719.18609999</v>
       </c>
       <c r="H495">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="496" spans="1:8">
@@ -13314,7 +13314,7 @@
         <v>9459592.115499996</v>
       </c>
       <c r="H497">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="498" spans="1:8">
@@ -13340,7 +13340,7 @@
         <v>9539544.666799996</v>
       </c>
       <c r="H498">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="499" spans="1:8">
@@ -13366,7 +13366,7 @@
         <v>9539544.666799996</v>
       </c>
       <c r="H499">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="500" spans="1:8">
@@ -13392,7 +13392,7 @@
         <v>9539544.666799996</v>
       </c>
       <c r="H500">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="501" spans="1:8">
@@ -13418,7 +13418,7 @@
         <v>9555556.740699995</v>
       </c>
       <c r="H501">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="502" spans="1:8">
@@ -13444,7 +13444,7 @@
         <v>9555556.740699995</v>
       </c>
       <c r="H502">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="503" spans="1:8">
@@ -13470,7 +13470,7 @@
         <v>9555556.740699995</v>
       </c>
       <c r="H503">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="504" spans="1:8">
@@ -13496,7 +13496,7 @@
         <v>9514311.440499995</v>
       </c>
       <c r="H504">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="505" spans="1:8">
@@ -13522,7 +13522,7 @@
         <v>9473035.349599995</v>
       </c>
       <c r="H505">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="506" spans="1:8">
@@ -13548,7 +13548,7 @@
         <v>9446832.623999994</v>
       </c>
       <c r="H506">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="507" spans="1:8">
@@ -13574,7 +13574,7 @@
         <v>9446832.623999994</v>
       </c>
       <c r="H507">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="508" spans="1:8">
@@ -13600,7 +13600,7 @@
         <v>9811478.063599994</v>
       </c>
       <c r="H508">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="509" spans="1:8">
@@ -13626,7 +13626,7 @@
         <v>9811478.063599994</v>
       </c>
       <c r="H509">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="510" spans="1:8">
@@ -13652,7 +13652,7 @@
         <v>9904928.313499995</v>
       </c>
       <c r="H510">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="511" spans="1:8">
@@ -13678,7 +13678,7 @@
         <v>9710946.167799994</v>
       </c>
       <c r="H511">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="512" spans="1:8">
@@ -13704,7 +13704,7 @@
         <v>9267505.068399994</v>
       </c>
       <c r="H512">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="513" spans="1:8">
@@ -13808,7 +13808,7 @@
         <v>9312111.627299994</v>
       </c>
       <c r="H516">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="517" spans="1:8">
@@ -14926,7 +14926,7 @@
         <v>10147543.65359999</v>
       </c>
       <c r="H559">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="560" spans="1:8">
@@ -14952,7 +14952,7 @@
         <v>10236817.87639999</v>
       </c>
       <c r="H560">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="561" spans="1:8">
@@ -14978,7 +14978,7 @@
         <v>10236817.87639999</v>
       </c>
       <c r="H561">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="562" spans="1:8">
@@ -15004,7 +15004,7 @@
         <v>10442326.47519999</v>
       </c>
       <c r="H562">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="563" spans="1:8">
@@ -15030,7 +15030,7 @@
         <v>10442326.47519999</v>
       </c>
       <c r="H563">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="564" spans="1:8">
@@ -15056,7 +15056,7 @@
         <v>10442326.47519999</v>
       </c>
       <c r="H564">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="565" spans="1:8">
@@ -15082,7 +15082,7 @@
         <v>10258470.92939999</v>
       </c>
       <c r="H565">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="566" spans="1:8">
@@ -15108,7 +15108,7 @@
         <v>10258470.92939999</v>
       </c>
       <c r="H566">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="567" spans="1:8">
@@ -15134,7 +15134,7 @@
         <v>10258470.92939999</v>
       </c>
       <c r="H567">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="568" spans="1:8">
@@ -15160,7 +15160,7 @@
         <v>9832567.182099992</v>
       </c>
       <c r="H568">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="569" spans="1:8">
@@ -15186,7 +15186,7 @@
         <v>9832567.182099992</v>
       </c>
       <c r="H569">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="570" spans="1:8">
@@ -15264,7 +15264,7 @@
         <v>10123871.30999999</v>
       </c>
       <c r="H572">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="573" spans="1:8">
@@ -15290,7 +15290,7 @@
         <v>10123871.30999999</v>
       </c>
       <c r="H573">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="574" spans="1:8">
@@ -15316,7 +15316,7 @@
         <v>9910134.767099991</v>
       </c>
       <c r="H574">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="575" spans="1:8">
@@ -15576,7 +15576,7 @@
         <v>10463860.53099999</v>
       </c>
       <c r="H584">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="585" spans="1:8">
@@ -15602,7 +15602,7 @@
         <v>10463860.53099999</v>
       </c>
       <c r="H585">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="586" spans="1:8">
@@ -15628,7 +15628,7 @@
         <v>10640318.89229999</v>
       </c>
       <c r="H586">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="587" spans="1:8">
@@ -15654,7 +15654,7 @@
         <v>10640318.89229999</v>
       </c>
       <c r="H587">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="588" spans="1:8">
@@ -15680,7 +15680,7 @@
         <v>10640318.89229999</v>
       </c>
       <c r="H588">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="589" spans="1:8">
@@ -15706,7 +15706,7 @@
         <v>10754193.33529999</v>
       </c>
       <c r="H589">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="590" spans="1:8">
@@ -15732,7 +15732,7 @@
         <v>10435608.71999999</v>
       </c>
       <c r="H590">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="591" spans="1:8">
@@ -15758,7 +15758,7 @@
         <v>10455859.01809999</v>
       </c>
       <c r="H591">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="592" spans="1:8">
@@ -15784,7 +15784,7 @@
         <v>10455859.01809999</v>
       </c>
       <c r="H592">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="593" spans="1:8">
@@ -15810,7 +15810,7 @@
         <v>10455859.01809999</v>
       </c>
       <c r="H593">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="594" spans="1:8">
@@ -16668,7 +16668,7 @@
         <v>12372083.53052256</v>
       </c>
       <c r="H626">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="627" spans="1:8">
@@ -16694,7 +16694,7 @@
         <v>12372083.53052256</v>
       </c>
       <c r="H627">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="628" spans="1:8">
@@ -16746,7 +16746,7 @@
         <v>12150200.15382256</v>
       </c>
       <c r="H629">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="630" spans="1:8">
@@ -16798,7 +16798,7 @@
         <v>12350707.43362256</v>
       </c>
       <c r="H631">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="632" spans="1:8">
@@ -16824,7 +16824,7 @@
         <v>12350707.43362256</v>
       </c>
       <c r="H632">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="633" spans="1:8">
@@ -16850,7 +16850,7 @@
         <v>12204662.38182256</v>
       </c>
       <c r="H633">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="634" spans="1:8">
@@ -17682,7 +17682,7 @@
         <v>14853410.96022256</v>
       </c>
       <c r="H665">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="666" spans="1:8">
@@ -17708,7 +17708,7 @@
         <v>14853410.96022256</v>
       </c>
       <c r="H666">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="667" spans="1:8">
@@ -17734,7 +17734,7 @@
         <v>15163177.68062256</v>
       </c>
       <c r="H667">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="668" spans="1:8">
@@ -17760,7 +17760,7 @@
         <v>15163177.68062256</v>
       </c>
       <c r="H668">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="669" spans="1:8">
@@ -17786,7 +17786,7 @@
         <v>15163177.68062256</v>
       </c>
       <c r="H669">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="670" spans="1:8">
@@ -17812,7 +17812,7 @@
         <v>15163177.68062256</v>
       </c>
       <c r="H670">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="671" spans="1:8">
@@ -17838,7 +17838,7 @@
         <v>15163177.68062256</v>
       </c>
       <c r="H671">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="672" spans="1:8">
@@ -17864,7 +17864,7 @@
         <v>15163177.68062256</v>
       </c>
       <c r="H672">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="673" spans="1:8">
@@ -17890,7 +17890,7 @@
         <v>15163177.68062256</v>
       </c>
       <c r="H673">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="674" spans="1:8">
@@ -17916,7 +17916,7 @@
         <v>15163177.68062256</v>
       </c>
       <c r="H674">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="675" spans="1:8">
@@ -17942,7 +17942,7 @@
         <v>15156676.08182256</v>
       </c>
       <c r="H675">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="676" spans="1:8">
@@ -17968,7 +17968,7 @@
         <v>15034822.78282256</v>
       </c>
       <c r="H676">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="677" spans="1:8">
@@ -17994,7 +17994,7 @@
         <v>15707607.67682256</v>
       </c>
       <c r="H677">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="678" spans="1:8">
@@ -18020,7 +18020,7 @@
         <v>15707607.67682256</v>
       </c>
       <c r="H678">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="679" spans="1:8">
@@ -18124,7 +18124,7 @@
         <v>15874630.45182256</v>
       </c>
       <c r="H682">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="683" spans="1:8">
@@ -18176,7 +18176,7 @@
         <v>15715662.37842256</v>
       </c>
       <c r="H684">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="685" spans="1:8">
@@ -18202,7 +18202,7 @@
         <v>15715662.37842256</v>
       </c>
       <c r="H685">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="686" spans="1:8">
@@ -18254,7 +18254,7 @@
         <v>16131173.24472256</v>
       </c>
       <c r="H687">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="688" spans="1:8">
@@ -18280,7 +18280,7 @@
         <v>15768111.38502256</v>
       </c>
       <c r="H688">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="689" spans="1:8">
@@ -18306,7 +18306,7 @@
         <v>15971470.32242256</v>
       </c>
       <c r="H689">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="690" spans="1:8">
@@ -18332,7 +18332,7 @@
         <v>15971470.32242256</v>
       </c>
       <c r="H690">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="691" spans="1:8">
@@ -18358,7 +18358,7 @@
         <v>15963012.83722256</v>
       </c>
       <c r="H691">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="692" spans="1:8">
@@ -18384,7 +18384,7 @@
         <v>15963012.83722256</v>
       </c>
       <c r="H692">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="693" spans="1:8">
@@ -18410,7 +18410,7 @@
         <v>15963012.83722256</v>
       </c>
       <c r="H693">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="694" spans="1:8">
@@ -18436,7 +18436,7 @@
         <v>15963012.83722256</v>
       </c>
       <c r="H694">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="695" spans="1:8">
@@ -18514,7 +18514,7 @@
         <v>15332447.38592256</v>
       </c>
       <c r="H697">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="698" spans="1:8">
@@ -20152,7 +20152,7 @@
         <v>16069227.12962256</v>
       </c>
       <c r="H760">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="761" spans="1:8">
@@ -20178,7 +20178,7 @@
         <v>16069227.12962256</v>
       </c>
       <c r="H761">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="762" spans="1:8">
@@ -20204,7 +20204,7 @@
         <v>16069227.12962256</v>
       </c>
       <c r="H762">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="763" spans="1:8">
@@ -22128,7 +22128,7 @@
         <v>18700426.28872256</v>
       </c>
       <c r="H836">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="837" spans="1:8">
@@ -22154,7 +22154,7 @@
         <v>18784052.33682256</v>
       </c>
       <c r="H837">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="838" spans="1:8">
@@ -22180,7 +22180,7 @@
         <v>18784052.33682256</v>
       </c>
       <c r="H838">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="839" spans="1:8">
@@ -22206,7 +22206,7 @@
         <v>17904437.624249</v>
       </c>
       <c r="H839">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="840" spans="1:8">
@@ -22726,7 +22726,7 @@
         <v>19681294.17477544</v>
       </c>
       <c r="H859">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="860" spans="1:8">
@@ -22752,7 +22752,7 @@
         <v>19681294.17477544</v>
       </c>
       <c r="H860">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="861" spans="1:8">
@@ -22908,7 +22908,7 @@
         <v>19681294.17477544</v>
       </c>
       <c r="H866">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="867" spans="1:8">
@@ -23376,7 +23376,7 @@
         <v>20329385.25177544</v>
       </c>
       <c r="H884">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="885" spans="1:8">
@@ -23402,7 +23402,7 @@
         <v>20540580.48137544</v>
       </c>
       <c r="H885">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="886" spans="1:8">
@@ -23428,7 +23428,7 @@
         <v>20540580.48137544</v>
       </c>
       <c r="H886">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="887" spans="1:8">
@@ -23454,7 +23454,7 @@
         <v>20893129.26877544</v>
       </c>
       <c r="H887">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="888" spans="1:8">
@@ -23480,7 +23480,7 @@
         <v>20795818.70285287</v>
       </c>
       <c r="H888">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="889" spans="1:8">
@@ -23506,7 +23506,7 @@
         <v>21199368.41585287</v>
       </c>
       <c r="H889">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="890" spans="1:8">
@@ -23532,7 +23532,7 @@
         <v>21405973.24615287</v>
       </c>
       <c r="H890">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="891" spans="1:8">
@@ -23558,7 +23558,7 @@
         <v>21472923.79445288</v>
       </c>
       <c r="H891">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="892" spans="1:8">
@@ -23584,7 +23584,7 @@
         <v>21472923.79445288</v>
       </c>
       <c r="H892">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="893" spans="1:8">
@@ -23610,7 +23610,7 @@
         <v>21472923.79445288</v>
       </c>
       <c r="H893">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="894" spans="1:8">
@@ -23636,7 +23636,7 @@
         <v>21472923.79445288</v>
       </c>
       <c r="H894">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="895" spans="1:8">
@@ -23662,7 +23662,7 @@
         <v>21220915.59565287</v>
       </c>
       <c r="H895">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="896" spans="1:8">
@@ -23688,7 +23688,7 @@
         <v>21220915.59565287</v>
       </c>
       <c r="H896">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="897" spans="1:8">
@@ -23714,7 +23714,7 @@
         <v>21220915.59565287</v>
       </c>
       <c r="H897">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="898" spans="1:8">
@@ -23740,7 +23740,7 @@
         <v>21220915.59565287</v>
       </c>
       <c r="H898">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="899" spans="1:8">
@@ -23766,7 +23766,7 @@
         <v>21040353.12555287</v>
       </c>
       <c r="H899">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="900" spans="1:8">
@@ -23792,7 +23792,7 @@
         <v>21040353.12555287</v>
       </c>
       <c r="H900">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="901" spans="1:8">
@@ -23818,7 +23818,7 @@
         <v>21040353.12555287</v>
       </c>
       <c r="H901">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="902" spans="1:8">
@@ -23844,7 +23844,7 @@
         <v>20846770.56785287</v>
       </c>
       <c r="H902">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="903" spans="1:8">
@@ -23870,7 +23870,7 @@
         <v>21057510.34045287</v>
       </c>
       <c r="H903">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="904" spans="1:8">
@@ -23896,7 +23896,7 @@
         <v>21057510.34045287</v>
       </c>
       <c r="H904">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="905" spans="1:8">
@@ -23922,7 +23922,7 @@
         <v>21057510.34045287</v>
       </c>
       <c r="H905">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="906" spans="1:8">
@@ -23948,7 +23948,7 @@
         <v>21057510.34045287</v>
       </c>
       <c r="H906">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="907" spans="1:8">
@@ -23974,7 +23974,7 @@
         <v>21057510.34045287</v>
       </c>
       <c r="H907">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="908" spans="1:8">
@@ -24000,7 +24000,7 @@
         <v>20844113.11495287</v>
       </c>
       <c r="H908">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="909" spans="1:8">
@@ -24026,7 +24026,7 @@
         <v>20844113.11495287</v>
       </c>
       <c r="H909">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="910" spans="1:8">
@@ -24052,7 +24052,7 @@
         <v>20842218.18405287</v>
       </c>
       <c r="H910">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="911" spans="1:8">
@@ -24078,7 +24078,7 @@
         <v>20842218.18405287</v>
       </c>
       <c r="H911">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="912" spans="1:8">
@@ -24104,7 +24104,7 @@
         <v>20842218.18405287</v>
       </c>
       <c r="H912">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="913" spans="1:8">
@@ -24130,7 +24130,7 @@
         <v>20842218.18405287</v>
       </c>
       <c r="H913">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="914" spans="1:8">
@@ -24156,7 +24156,7 @@
         <v>20655139.49475287</v>
       </c>
       <c r="H914">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="915" spans="1:8">
@@ -24182,7 +24182,7 @@
         <v>20655139.49475287</v>
       </c>
       <c r="H915">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="916" spans="1:8">
@@ -24208,7 +24208,7 @@
         <v>20655139.49475287</v>
       </c>
       <c r="H916">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="917" spans="1:8">
@@ -24234,7 +24234,7 @@
         <v>20655139.49475287</v>
       </c>
       <c r="H917">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="918" spans="1:8">
@@ -24260,7 +24260,7 @@
         <v>20655139.49475287</v>
       </c>
       <c r="H918">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="919" spans="1:8">
@@ -24286,7 +24286,7 @@
         <v>20655139.49475287</v>
       </c>
       <c r="H919">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="920" spans="1:8">
@@ -24312,7 +24312,7 @@
         <v>20655139.49475287</v>
       </c>
       <c r="H920">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="921" spans="1:8">
@@ -24338,7 +24338,7 @@
         <v>20655139.49475287</v>
       </c>
       <c r="H921">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="922" spans="1:8">
@@ -24364,7 +24364,7 @@
         <v>20655139.49475287</v>
       </c>
       <c r="H922">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="923" spans="1:8">
@@ -24390,7 +24390,7 @@
         <v>20655139.49475287</v>
       </c>
       <c r="H923">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="924" spans="1:8">
@@ -24416,7 +24416,7 @@
         <v>20336311.42915287</v>
       </c>
       <c r="H924">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="925" spans="1:8">
@@ -24442,7 +24442,7 @@
         <v>20336311.42915287</v>
       </c>
       <c r="H925">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="926" spans="1:8">
@@ -24468,7 +24468,7 @@
         <v>20336311.42915287</v>
       </c>
       <c r="H926">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="927" spans="1:8">
@@ -24494,7 +24494,7 @@
         <v>20336311.42915287</v>
       </c>
       <c r="H927">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="928" spans="1:8">
@@ -24520,7 +24520,7 @@
         <v>20336311.42915287</v>
       </c>
       <c r="H928">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="929" spans="1:8">
@@ -24546,7 +24546,7 @@
         <v>20336311.42915287</v>
       </c>
       <c r="H929">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="930" spans="1:8">
@@ -24572,7 +24572,7 @@
         <v>20336311.42915287</v>
       </c>
       <c r="H930">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="931" spans="1:8">
@@ -24598,7 +24598,7 @@
         <v>20336311.42915287</v>
       </c>
       <c r="H931">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="932" spans="1:8">
@@ -24624,7 +24624,7 @@
         <v>20336311.42915287</v>
       </c>
       <c r="H932">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="933" spans="1:8">
@@ -24650,7 +24650,7 @@
         <v>20336311.42915287</v>
       </c>
       <c r="H933">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="934" spans="1:8">
@@ -24676,7 +24676,7 @@
         <v>20336311.42915287</v>
       </c>
       <c r="H934">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="935" spans="1:8">
@@ -24702,7 +24702,7 @@
         <v>20336311.42915287</v>
       </c>
       <c r="H935">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="936" spans="1:8">
@@ -24728,7 +24728,7 @@
         <v>20336311.42915287</v>
       </c>
       <c r="H936">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="937" spans="1:8">
@@ -24754,7 +24754,7 @@
         <v>20336311.42915287</v>
       </c>
       <c r="H937">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="938" spans="1:8">
@@ -24780,7 +24780,7 @@
         <v>20336311.42915287</v>
       </c>
       <c r="H938">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="939" spans="1:8">
@@ -24832,7 +24832,7 @@
         <v>20336311.42915287</v>
       </c>
       <c r="H940">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="941" spans="1:8">
@@ -24858,7 +24858,7 @@
         <v>20336311.42915287</v>
       </c>
       <c r="H941">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="942" spans="1:8">
@@ -24884,7 +24884,7 @@
         <v>20556362.00535287</v>
       </c>
       <c r="H942">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="943" spans="1:8">
@@ -24910,7 +24910,7 @@
         <v>20398935.22295287</v>
       </c>
       <c r="H943">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="944" spans="1:8">
@@ -24936,7 +24936,7 @@
         <v>20450023.87535287</v>
       </c>
       <c r="H944">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="945" spans="1:8">
@@ -24962,7 +24962,7 @@
         <v>20450023.87535287</v>
       </c>
       <c r="H945">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="946" spans="1:8">
@@ -24988,7 +24988,7 @@
         <v>20450023.87535287</v>
       </c>
       <c r="H946">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="947" spans="1:8">
@@ -25014,7 +25014,7 @@
         <v>20450023.87535287</v>
       </c>
       <c r="H947">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="948" spans="1:8">
@@ -25040,7 +25040,7 @@
         <v>20450023.87535287</v>
       </c>
       <c r="H948">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="949" spans="1:8">
@@ -25066,7 +25066,7 @@
         <v>20450023.87535287</v>
       </c>
       <c r="H949">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="950" spans="1:8">
@@ -25092,7 +25092,7 @@
         <v>20450023.87535287</v>
       </c>
       <c r="H950">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="951" spans="1:8">
@@ -25118,7 +25118,7 @@
         <v>20450023.87535287</v>
       </c>
       <c r="H951">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="952" spans="1:8">
@@ -25144,7 +25144,7 @@
         <v>20450023.87535287</v>
       </c>
       <c r="H952">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="953" spans="1:8">
@@ -25170,7 +25170,7 @@
         <v>19724398.07455287</v>
       </c>
       <c r="H953">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="954" spans="1:8">
@@ -25196,7 +25196,7 @@
         <v>19740226.67265287</v>
       </c>
       <c r="H954">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="955" spans="1:8">
@@ -25222,7 +25222,7 @@
         <v>19740226.67265287</v>
       </c>
       <c r="H955">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="956" spans="1:8">
@@ -25248,7 +25248,7 @@
         <v>19740226.67265287</v>
       </c>
       <c r="H956">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="957" spans="1:8">
@@ -25378,7 +25378,7 @@
         <v>19524923.09435287</v>
       </c>
       <c r="H961">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="962" spans="1:8">
@@ -25404,7 +25404,7 @@
         <v>19770876.22295287</v>
       </c>
       <c r="H962">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="963" spans="1:8">
@@ -25482,7 +25482,7 @@
         <v>19770876.22295287</v>
       </c>
       <c r="H965">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="966" spans="1:8">
@@ -25508,7 +25508,7 @@
         <v>19770876.22295287</v>
       </c>
       <c r="H966">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="967" spans="1:8">
@@ -25534,7 +25534,7 @@
         <v>19770876.22295287</v>
       </c>
       <c r="H967">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="968" spans="1:8">
@@ -25560,7 +25560,7 @@
         <v>19770876.22295287</v>
       </c>
       <c r="H968">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="969" spans="1:8">
@@ -25586,7 +25586,7 @@
         <v>19770876.22295287</v>
       </c>
       <c r="H969">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="970" spans="1:8">
@@ -25638,7 +25638,7 @@
         <v>19770876.22295287</v>
       </c>
       <c r="H971">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="972" spans="1:8">
@@ -25664,7 +25664,7 @@
         <v>19770876.22295287</v>
       </c>
       <c r="H972">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="973" spans="1:8">
@@ -25690,7 +25690,7 @@
         <v>19770876.22295287</v>
       </c>
       <c r="H973">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="974" spans="1:8">
@@ -25716,7 +25716,7 @@
         <v>19770876.22295287</v>
       </c>
       <c r="H974">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="975" spans="1:8">
@@ -25742,7 +25742,7 @@
         <v>19770876.22295287</v>
       </c>
       <c r="H975">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="976" spans="1:8">
@@ -25768,7 +25768,7 @@
         <v>19770876.22295287</v>
       </c>
       <c r="H976">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="977" spans="1:8">
@@ -25794,7 +25794,7 @@
         <v>19770876.22295287</v>
       </c>
       <c r="H977">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="978" spans="1:8">
@@ -25820,7 +25820,7 @@
         <v>19770876.22295287</v>
       </c>
       <c r="H978">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="979" spans="1:8">
@@ -25846,7 +25846,7 @@
         <v>19770876.22295287</v>
       </c>
       <c r="H979">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="980" spans="1:8">
@@ -25872,7 +25872,7 @@
         <v>19770876.22295287</v>
       </c>
       <c r="H980">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="981" spans="1:8">
@@ -25898,7 +25898,7 @@
         <v>19770876.22295287</v>
       </c>
       <c r="H981">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="982" spans="1:8">
@@ -25924,7 +25924,7 @@
         <v>19653876.22295287</v>
       </c>
       <c r="H982">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="983" spans="1:8">
@@ -25950,7 +25950,7 @@
         <v>19853994.10075287</v>
       </c>
       <c r="H983">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="984" spans="1:8">
@@ -26002,7 +26002,7 @@
         <v>19853994.10075287</v>
       </c>
       <c r="H985">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="986" spans="1:8">
@@ -26158,7 +26158,7 @@
         <v>19777684.10745287</v>
       </c>
       <c r="H991">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="992" spans="1:8">
